--- a/tong hop de thi.xlsx
+++ b/tong hop de thi.xlsx
@@ -1077,9 +1077,6 @@
     <t>Power BI là công cụ:</t>
   </si>
   <si>
-    <t>Ứng dụng AI phân tích dữ liệu chuỗi khối</t>
-  </si>
-  <si>
     <t>Xử lý ảnh</t>
   </si>
   <si>
@@ -2098,6 +2095,9 @@
   </si>
   <si>
     <t>Theo kịp tốc độ phát triển nhanh chóng của công nghệ mới</t>
+  </si>
+  <si>
+    <t>Trực quan hóa dữ liệu và phân tích</t>
   </si>
 </sst>
 </file>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2894,7 +2894,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>88</v>
@@ -2948,7 +2948,7 @@
         <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>99</v>
@@ -3251,13 +3251,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>159</v>
@@ -3544,7 +3544,7 @@
         <v>197</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>215</v>
@@ -3805,7 +3805,7 @@
         <v>264</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>265</v>
@@ -3898,7 +3898,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>281</v>
@@ -4261,7 +4261,7 @@
         <v>348</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>349</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4285,16 +4285,16 @@
         <v>352</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="G76" s="2">
         <f>VLOOKUP(A76,Sheet2!A:B,2,0)</f>
@@ -4306,19 +4306,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="G77" s="2">
         <f>VLOOKUP(A77,Sheet2!A:B,2,0)</f>
@@ -4330,19 +4330,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G78" s="2">
         <f>VLOOKUP(A78,Sheet2!A:B,2,0)</f>
@@ -4354,19 +4354,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="G79" s="2">
         <f>VLOOKUP(A79,Sheet2!A:B,2,0)</f>
@@ -4378,19 +4378,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="G80" s="2">
         <f>VLOOKUP(A80,Sheet2!A:B,2,0)</f>
@@ -4402,19 +4402,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G81" s="2">
         <f>VLOOKUP(A81,Sheet2!A:B,2,0)</f>
@@ -4426,19 +4426,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="G82" s="2">
         <f>VLOOKUP(A82,Sheet2!A:B,2,0)</f>
@@ -4450,19 +4450,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G83" s="2">
         <f>VLOOKUP(A83,Sheet2!A:B,2,0)</f>
@@ -4474,19 +4474,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="G84" s="2">
         <f>VLOOKUP(A84,Sheet2!A:B,2,0)</f>
@@ -4498,19 +4498,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="G85" s="2">
         <f>VLOOKUP(A85,Sheet2!A:B,2,0)</f>
@@ -4522,19 +4522,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="G86" s="2">
         <f>VLOOKUP(A86,Sheet2!A:B,2,0)</f>
@@ -4546,19 +4546,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="G87" s="2">
         <f>VLOOKUP(A87,Sheet2!A:B,2,0)</f>
@@ -4570,19 +4570,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="G88" s="2">
         <f>VLOOKUP(A88,Sheet2!A:B,2,0)</f>
@@ -4594,19 +4594,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G89" s="2">
         <f>VLOOKUP(A89,Sheet2!A:B,2,0)</f>
@@ -4618,19 +4618,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="G90" s="2">
         <f>VLOOKUP(A90,Sheet2!A:B,2,0)</f>
@@ -4642,19 +4642,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="G91" s="2">
         <f>VLOOKUP(A91,Sheet2!A:B,2,0)</f>
@@ -4666,19 +4666,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G92" s="2">
         <f>VLOOKUP(A92,Sheet2!A:B,2,0)</f>
@@ -4690,19 +4690,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="G93" s="2">
         <f>VLOOKUP(A93,Sheet2!A:B,2,0)</f>
@@ -4714,19 +4714,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="G94" s="2">
         <f>VLOOKUP(A94,Sheet2!A:B,2,0)</f>
@@ -4738,19 +4738,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="G95" s="2">
         <f>VLOOKUP(A95,Sheet2!A:B,2,0)</f>
@@ -4762,19 +4762,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G96" s="2">
         <f>VLOOKUP(A96,Sheet2!A:B,2,0)</f>
@@ -4786,19 +4786,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="G97" s="2">
         <f>VLOOKUP(A97,Sheet2!A:B,2,0)</f>
@@ -4810,19 +4810,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="G98" s="2">
         <f>VLOOKUP(A98,Sheet2!A:B,2,0)</f>
@@ -4834,19 +4834,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G99" s="2">
         <f>VLOOKUP(A99,Sheet2!A:B,2,0)</f>
@@ -4858,19 +4858,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="G100" s="2">
         <f>VLOOKUP(A100,Sheet2!A:B,2,0)</f>
@@ -4882,19 +4882,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G101" s="2">
         <f>VLOOKUP(A101,Sheet2!A:B,2,0)</f>
@@ -4906,19 +4906,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="G102" s="2">
         <f>VLOOKUP(A102,Sheet2!A:B,2,0)</f>
@@ -4930,19 +4930,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="G103" s="2">
         <f>VLOOKUP(A103,Sheet2!A:B,2,0)</f>
@@ -4954,19 +4954,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G104" s="2">
         <f>VLOOKUP(A104,Sheet2!A:B,2,0)</f>
@@ -4978,19 +4978,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="G105" s="2">
         <f>VLOOKUP(A105,Sheet2!A:B,2,0)</f>
@@ -5002,19 +5002,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="G106" s="2">
         <f>VLOOKUP(A106,Sheet2!A:B,2,0)</f>
@@ -5026,19 +5026,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="G107" s="2">
         <f>VLOOKUP(A107,Sheet2!A:B,2,0)</f>
@@ -5050,19 +5050,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="G108" s="2">
         <f>VLOOKUP(A108,Sheet2!A:B,2,0)</f>
@@ -5074,19 +5074,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="G109" s="2">
         <f>VLOOKUP(A109,Sheet2!A:B,2,0)</f>
@@ -5098,19 +5098,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="G110" s="2">
         <f>VLOOKUP(A110,Sheet2!A:B,2,0)</f>
@@ -5122,19 +5122,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="G111" s="2">
         <f>VLOOKUP(A111,Sheet2!A:B,2,0)</f>
@@ -5146,19 +5146,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="G112" s="2">
         <f>VLOOKUP(A112,Sheet2!A:B,2,0)</f>
@@ -5170,19 +5170,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="G113" s="2">
         <v>4</v>
@@ -5193,19 +5193,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G114" s="2">
         <f>VLOOKUP(A114,Sheet2!A:B,2,0)</f>
@@ -5217,19 +5217,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="G115" s="2">
         <f>VLOOKUP(A115,Sheet2!A:B,2,0)</f>
@@ -5241,19 +5241,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="G116" s="2">
         <f>VLOOKUP(A116,Sheet2!A:B,2,0)</f>
@@ -5265,19 +5265,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="G117" s="2">
         <v>1</v>
@@ -5288,16 +5288,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>233</v>
@@ -5312,19 +5312,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="G119" s="2">
         <f>VLOOKUP(A119,Sheet2!A:B,2,0)</f>
@@ -5336,19 +5336,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="G120" s="2">
         <f>VLOOKUP(A120,Sheet2!A:B,2,0)</f>
@@ -5360,19 +5360,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="G121" s="2">
         <f>VLOOKUP(A121,Sheet2!A:B,2,0)</f>
@@ -5384,19 +5384,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="G122" s="2">
         <f>VLOOKUP(A122,Sheet2!A:B,2,0)</f>
@@ -5408,19 +5408,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="G123" s="2">
         <f>VLOOKUP(A123,Sheet2!A:B,2,0)</f>
@@ -5432,19 +5432,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="G124" s="2">
         <f>VLOOKUP(A124,Sheet2!A:B,2,0)</f>
@@ -5456,19 +5456,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="G125" s="2">
         <f>VLOOKUP(A125,Sheet2!A:B,2,0)</f>
@@ -5480,19 +5480,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G126" s="2">
         <f>VLOOKUP(A126,Sheet2!A:B,2,0)</f>
@@ -5504,19 +5504,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="G127" s="2">
         <f>VLOOKUP(A127,Sheet2!A:B,2,0)</f>
@@ -5528,19 +5528,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="G128" s="2">
         <f>VLOOKUP(A128,Sheet2!A:B,2,0)</f>
@@ -5552,19 +5552,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="G129" s="2">
         <f>VLOOKUP(A129,Sheet2!A:B,2,0)</f>
@@ -5576,19 +5576,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="G130" s="2">
         <f>VLOOKUP(A130,Sheet2!A:B,2,0)</f>
@@ -5600,19 +5600,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="G131" s="2">
         <f>VLOOKUP(A131,Sheet2!A:B,2,0)</f>
@@ -5624,19 +5624,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="G132" s="2">
         <f>VLOOKUP(A132,Sheet2!A:B,2,0)</f>
@@ -5648,19 +5648,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="G133" s="2">
         <f>VLOOKUP(A133,Sheet2!A:B,2,0)</f>
@@ -5672,19 +5672,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G134" s="2">
         <f>VLOOKUP(A134,Sheet2!A:B,2,0)</f>
@@ -5696,19 +5696,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="G135" s="2">
         <f>VLOOKUP(A135,Sheet2!A:B,2,0)</f>
@@ -5720,19 +5720,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="G136" s="2">
         <f>VLOOKUP(A136,Sheet2!A:B,2,0)</f>
@@ -5744,19 +5744,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G137" s="2">
         <f>VLOOKUP(A137,Sheet2!A:B,2,0)</f>
@@ -5768,19 +5768,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="G138" s="2">
         <f>VLOOKUP(A138,Sheet2!A:B,2,0)</f>
@@ -5792,19 +5792,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="G139" s="2">
         <f>VLOOKUP(A139,Sheet2!A:B,2,0)</f>
@@ -5816,19 +5816,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G140" s="2">
         <f>VLOOKUP(A140,Sheet2!A:B,2,0)</f>
@@ -5840,7 +5840,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C141" s="3">
         <v>45099</v>
@@ -5864,19 +5864,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="G142" s="2">
         <f>VLOOKUP(A142,Sheet2!A:B,2,0)</f>
@@ -5888,19 +5888,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="G143" s="2">
         <f>VLOOKUP(A143,Sheet2!A:B,2,0)</f>
@@ -5912,19 +5912,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="G144" s="2">
         <f>VLOOKUP(A144,Sheet2!A:B,2,0)</f>
@@ -5936,19 +5936,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="G145" s="2">
         <f>VLOOKUP(A145,Sheet2!A:B,2,0)</f>
@@ -5960,19 +5960,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="G146" s="2">
         <f>VLOOKUP(A146,Sheet2!A:B,2,0)</f>
@@ -5984,19 +5984,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="G147" s="2">
         <f>VLOOKUP(A147,Sheet2!A:B,2,0)</f>
@@ -6008,19 +6008,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="G148" s="2">
         <f>VLOOKUP(A148,Sheet2!A:B,2,0)</f>
@@ -6032,19 +6032,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="G149" s="2">
         <f>VLOOKUP(A149,Sheet2!A:B,2,0)</f>
@@ -6056,19 +6056,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="G150" s="2">
         <f>VLOOKUP(A150,Sheet2!A:B,2,0)</f>
@@ -6080,19 +6080,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="G151" s="2">
         <f>VLOOKUP(A151,Sheet2!A:B,2,0)</f>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">

--- a/tong hop de thi.xlsx
+++ b/tong hop de thi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="53" windowWidth="17190" windowHeight="9983"/>
+    <workbookView xWindow="360" yWindow="53" windowWidth="17190" windowHeight="9983" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="G3" s="2">
         <f>VLOOKUP(A3,Sheet2!A:B,2,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.15" x14ac:dyDescent="0.45">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G4" s="2">
         <f>VLOOKUP(A4,Sheet2!A:B,2,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.15" x14ac:dyDescent="0.45">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="G5" s="2">
         <f>VLOOKUP(A5,Sheet2!A:B,2,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="G6" s="2">
         <f>VLOOKUP(A6,Sheet2!A:B,2,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.15" x14ac:dyDescent="0.45">
@@ -6109,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6136,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -6144,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -6152,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -6160,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">

--- a/tong hop de thi.xlsx
+++ b/tong hop de thi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="53" windowWidth="17190" windowHeight="9983" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="53" windowWidth="17190" windowHeight="9983"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>Decentralization trong Blockchain nghĩa là:</t>
   </si>
   <si>
-    <t>Không có cơ quan trung gian</t>
-  </si>
-  <si>
     <t>Tập trung tại một điểm</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>Public Blockchain cho phép:</t>
   </si>
   <si>
-    <t>Gian kiểm soát</t>
-  </si>
-  <si>
     <t>Chỉ một nhóm nhỏ được tham gia</t>
   </si>
   <si>
@@ -651,9 +645,6 @@
     <t>Người dùng yêu cầu</t>
   </si>
   <si>
-    <t>Điều kiện được lập trình</t>
-  </si>
-  <si>
     <t>Hệ thống gặp lỗi</t>
   </si>
   <si>
@@ -1548,9 +1539,6 @@
     <t>Computer Vision được dùng để:</t>
   </si>
   <si>
-    <t>Xử lý và phân tích hình ảnh, nhận diện khuôn mặt</t>
-  </si>
-  <si>
     <t>Phân tích cảm xúc văn bản</t>
   </si>
   <si>
@@ -1698,9 +1686,6 @@
     <t>Vi phạm quy định pháp lý</t>
   </si>
   <si>
-    <t>Công cụ giải pháp nào dưới đây giúp tự động hóa báo cáo tuân thủ và giám sát giao dịch AML/KYC theo thời gian thực trong quản lý rủi ro Fintech?</t>
-  </si>
-  <si>
     <t>RegTech</t>
   </si>
   <si>
@@ -1794,9 +1779,6 @@
     <t>Luật Giao dịch điện tử (sửa đổi 2023)</t>
   </si>
   <si>
-    <t>Nghị định 101/2012/NĐ-CP</t>
-  </si>
-  <si>
     <t>Công cụ nào cho phép doanh nghiệp Fintech thử nghiệm sản phẩm, dịch vụ mới trong phạm vi kiểm soát của cơ quan quản lý trước khi triển khai chính thức?</t>
   </si>
   <si>
@@ -1905,9 +1887,6 @@
     <t>Nghị định nào quy định về hoạt động trung gian thanh toán trong lĩnh vực Fintech tại Việt Nam?</t>
   </si>
   <si>
-    <t>Nghị định 101/2012/NĐ-CP và Nghị định 87/2019/NĐ-CP</t>
-  </si>
-  <si>
     <t>Luật An toàn thông tin mạng (2015)</t>
   </si>
   <si>
@@ -1944,9 +1923,6 @@
     <t>Vì khách hàng không quan tâm đến bảo mật và quyền riêng tư</t>
   </si>
   <si>
-    <t>Giải pháp nào dưới đây giúp doanh nghiệp Fintech giám sát và báo cáo tuân thủ một cách tự động, giảm sai</t>
-  </si>
-  <si>
     <t>Tư vấn pháp lý từ bên ngoài</t>
   </si>
   <si>
@@ -2070,9 +2046,6 @@
     <t>Tự động hóa nhờ hợp đồng thông minh</t>
   </si>
   <si>
-    <t>Đâu là ưu thế của Blokchain?</t>
-  </si>
-  <si>
     <t>Tự động thực thi các điều khoản đã được lập trình khi những điều kiện nhất định được đáp ứng</t>
   </si>
   <si>
@@ -2098,6 +2071,33 @@
   </si>
   <si>
     <t>Trực quan hóa dữ liệu và phân tích</t>
+  </si>
+  <si>
+    <t>Không có cơ quan trung gian kiểm soát</t>
+  </si>
+  <si>
+    <t>Bất kỳ ai cũng có thể tham gia và xác minh giao dịch</t>
+  </si>
+  <si>
+    <t>Đâu là ưu thế của Blockchain?</t>
+  </si>
+  <si>
+    <t>Điều kiện được lập trình sẵn được đáp ứng</t>
+  </si>
+  <si>
+    <t>Xác thực danh tính bằng nhận diện khuôn mặt</t>
+  </si>
+  <si>
+    <t>Công cụ/giải pháp nào dưới đây giúp tự động hóa báo cáo tuân thủ và giám sát giao dịch AML/KYC theo thời gian thực trong quản lý rủi ro Fintech?</t>
+  </si>
+  <si>
+    <t>Nghị định 101/2012/NĐ-CP (Đáp an số 4)</t>
+  </si>
+  <si>
+    <t>Nghị định 101/2012/NĐ-CP và Nghị định 87/2019/NĐ-CP (đáp an 1)</t>
+  </si>
+  <si>
+    <t>Giải pháp nào dưới đây giúp doanh nghiệp Fintech giám sát và báo cáo tuân thủ một cách tự động, giảm sai sót thủ công?</t>
   </si>
 </sst>
 </file>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2894,7 +2894,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>88</v>
@@ -2948,7 +2948,7 @@
         <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>99</v>
@@ -3158,40 +3158,40 @@
         <v>138</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G29" s="2">
         <f>VLOOKUP(A29,Sheet2!A:B,2,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="28.15" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G30" s="2">
         <f>VLOOKUP(A30,Sheet2!A:B,2,0)</f>
@@ -3203,19 +3203,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G31" s="2">
         <f>VLOOKUP(A31,Sheet2!A:B,2,0)</f>
@@ -3227,16 +3227,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>81</v>
@@ -3251,19 +3251,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -3274,16 +3274,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>70</v>
@@ -3298,19 +3298,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G35" s="2">
         <f>VLOOKUP(A35,Sheet2!A:B,2,0)</f>
@@ -3322,19 +3322,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="G36" s="2">
         <f>VLOOKUP(A36,Sheet2!A:B,2,0)</f>
@@ -3346,19 +3346,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G37" s="2">
         <f>VLOOKUP(A37,Sheet2!A:B,2,0)</f>
@@ -3370,19 +3370,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G38" s="2">
         <f>VLOOKUP(A38,Sheet2!A:B,2,0)</f>
@@ -3394,19 +3394,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="G39" s="2">
         <f>VLOOKUP(A39,Sheet2!A:B,2,0)</f>
@@ -3418,19 +3418,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="G40" s="2">
         <f>VLOOKUP(A40,Sheet2!A:B,2,0)</f>
@@ -3442,19 +3442,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G41" s="2">
         <f>VLOOKUP(A41,Sheet2!A:B,2,0)</f>
@@ -3466,19 +3466,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="G42" s="2">
         <f>VLOOKUP(A42,Sheet2!A:B,2,0)</f>
@@ -3490,43 +3490,43 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G43" s="2">
         <f>VLOOKUP(A43,Sheet2!A:B,2,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="28.15" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G44" s="2">
         <f>VLOOKUP(A44,Sheet2!A:B,2,0)</f>
@@ -3538,19 +3538,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G45" s="2">
         <f>VLOOKUP(A45,Sheet2!A:B,2,0)</f>
@@ -3562,19 +3562,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G46" s="2">
         <f>VLOOKUP(A46,Sheet2!A:B,2,0)</f>
@@ -3586,19 +3586,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="G47" s="2">
         <f>VLOOKUP(A47,Sheet2!A:B,2,0)</f>
@@ -3610,19 +3610,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="G48" s="2">
         <f>VLOOKUP(A48,Sheet2!A:B,2,0)</f>
@@ -3634,19 +3634,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="G49" s="2">
         <f>VLOOKUP(A49,Sheet2!A:B,2,0)</f>
@@ -3658,19 +3658,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="G50" s="2">
         <f>VLOOKUP(A50,Sheet2!A:B,2,0)</f>
@@ -3682,19 +3682,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G51" s="2">
         <f>VLOOKUP(A51,Sheet2!A:B,2,0)</f>
@@ -3706,19 +3706,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="G52" s="2">
         <f>VLOOKUP(A52,Sheet2!A:B,2,0)</f>
@@ -3730,19 +3730,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="G53" s="2">
         <f>VLOOKUP(A53,Sheet2!A:B,2,0)</f>
@@ -3754,19 +3754,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="G54" s="2">
         <f>VLOOKUP(A54,Sheet2!A:B,2,0)</f>
@@ -3778,19 +3778,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="G55" s="2">
         <f>VLOOKUP(A55,Sheet2!A:B,2,0)</f>
@@ -3802,19 +3802,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G56" s="2">
         <f>VLOOKUP(A56,Sheet2!A:B,2,0)</f>
@@ -3826,19 +3826,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="G57" s="2">
         <f>VLOOKUP(A57,Sheet2!A:B,2,0)</f>
@@ -3850,19 +3850,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="G58" s="2">
         <f>VLOOKUP(A58,Sheet2!A:B,2,0)</f>
@@ -3874,19 +3874,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="G59" s="2">
         <f>VLOOKUP(A59,Sheet2!A:B,2,0)</f>
@@ -3898,19 +3898,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G60" s="2">
         <f>VLOOKUP(A60,Sheet2!A:B,2,0)</f>
@@ -3922,19 +3922,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="G61" s="2">
         <f>VLOOKUP(A61,Sheet2!A:B,2,0)</f>
@@ -3946,19 +3946,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="G62" s="2">
         <f>VLOOKUP(A62,Sheet2!A:B,2,0)</f>
@@ -3970,19 +3970,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="G63" s="2">
         <f>VLOOKUP(A63,Sheet2!A:B,2,0)</f>
@@ -3994,19 +3994,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="G64" s="2">
         <f>VLOOKUP(A64,Sheet2!A:B,2,0)</f>
@@ -4018,19 +4018,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="G65" s="2">
         <f>VLOOKUP(A65,Sheet2!A:B,2,0)</f>
@@ -4042,19 +4042,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="G66" s="2">
         <f>VLOOKUP(A66,Sheet2!A:B,2,0)</f>
@@ -4066,19 +4066,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="G67" s="2">
         <f>VLOOKUP(A67,Sheet2!A:B,2,0)</f>
@@ -4090,19 +4090,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G68" s="2">
         <f>VLOOKUP(A68,Sheet2!A:B,2,0)</f>
@@ -4114,19 +4114,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="G69" s="2">
         <f>VLOOKUP(A69,Sheet2!A:B,2,0)</f>
@@ -4138,19 +4138,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="G70" s="2">
         <f>VLOOKUP(A70,Sheet2!A:B,2,0)</f>
@@ -4162,19 +4162,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G71" s="2">
         <f>VLOOKUP(A71,Sheet2!A:B,2,0)</f>
@@ -4186,19 +4186,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="G72" s="2">
         <f>VLOOKUP(A72,Sheet2!A:B,2,0)</f>
@@ -4210,19 +4210,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G73" s="2">
         <f>VLOOKUP(A73,Sheet2!A:B,2,0)</f>
@@ -4234,19 +4234,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G74" s="2">
         <f>VLOOKUP(A74,Sheet2!A:B,2,0)</f>
@@ -4258,19 +4258,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="G75" s="2">
         <f>VLOOKUP(A75,Sheet2!A:B,2,0)</f>
@@ -4282,19 +4282,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="G76" s="2">
         <f>VLOOKUP(A76,Sheet2!A:B,2,0)</f>
@@ -4306,19 +4306,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="G77" s="2">
         <f>VLOOKUP(A77,Sheet2!A:B,2,0)</f>
@@ -4330,19 +4330,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G78" s="2">
         <f>VLOOKUP(A78,Sheet2!A:B,2,0)</f>
@@ -4354,19 +4354,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="G79" s="2">
         <f>VLOOKUP(A79,Sheet2!A:B,2,0)</f>
@@ -4378,19 +4378,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="G80" s="2">
         <f>VLOOKUP(A80,Sheet2!A:B,2,0)</f>
@@ -4402,19 +4402,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G81" s="2">
         <f>VLOOKUP(A81,Sheet2!A:B,2,0)</f>
@@ -4426,19 +4426,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G82" s="2">
         <f>VLOOKUP(A82,Sheet2!A:B,2,0)</f>
@@ -4450,19 +4450,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G83" s="2">
         <f>VLOOKUP(A83,Sheet2!A:B,2,0)</f>
@@ -4474,19 +4474,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="G84" s="2">
         <f>VLOOKUP(A84,Sheet2!A:B,2,0)</f>
@@ -4498,19 +4498,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="G85" s="2">
         <f>VLOOKUP(A85,Sheet2!A:B,2,0)</f>
@@ -4522,19 +4522,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="G86" s="2">
         <f>VLOOKUP(A86,Sheet2!A:B,2,0)</f>
@@ -4546,19 +4546,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="G87" s="2">
         <f>VLOOKUP(A87,Sheet2!A:B,2,0)</f>
@@ -4570,19 +4570,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="G88" s="2">
         <f>VLOOKUP(A88,Sheet2!A:B,2,0)</f>
@@ -4594,19 +4594,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G89" s="2">
         <f>VLOOKUP(A89,Sheet2!A:B,2,0)</f>
@@ -4618,19 +4618,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="G90" s="2">
         <f>VLOOKUP(A90,Sheet2!A:B,2,0)</f>
@@ -4642,19 +4642,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="G91" s="2">
         <f>VLOOKUP(A91,Sheet2!A:B,2,0)</f>
@@ -4666,19 +4666,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G92" s="2">
         <f>VLOOKUP(A92,Sheet2!A:B,2,0)</f>
@@ -4690,19 +4690,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="G93" s="2">
         <f>VLOOKUP(A93,Sheet2!A:B,2,0)</f>
@@ -4714,19 +4714,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G94" s="2">
         <f>VLOOKUP(A94,Sheet2!A:B,2,0)</f>
@@ -4738,19 +4738,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="G95" s="2">
         <f>VLOOKUP(A95,Sheet2!A:B,2,0)</f>
@@ -4762,19 +4762,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G96" s="2">
         <f>VLOOKUP(A96,Sheet2!A:B,2,0)</f>
@@ -4786,19 +4786,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="G97" s="2">
         <f>VLOOKUP(A97,Sheet2!A:B,2,0)</f>
@@ -4810,19 +4810,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="G98" s="2">
         <f>VLOOKUP(A98,Sheet2!A:B,2,0)</f>
@@ -4834,19 +4834,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="G99" s="2">
         <f>VLOOKUP(A99,Sheet2!A:B,2,0)</f>
@@ -4858,19 +4858,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="G100" s="2">
         <f>VLOOKUP(A100,Sheet2!A:B,2,0)</f>
@@ -4882,19 +4882,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="G101" s="2">
         <f>VLOOKUP(A101,Sheet2!A:B,2,0)</f>
@@ -4906,19 +4906,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="G102" s="2">
         <f>VLOOKUP(A102,Sheet2!A:B,2,0)</f>
@@ -4930,19 +4930,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="G103" s="2">
         <f>VLOOKUP(A103,Sheet2!A:B,2,0)</f>
@@ -4954,19 +4954,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G104" s="2">
         <f>VLOOKUP(A104,Sheet2!A:B,2,0)</f>
@@ -4978,19 +4978,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="G105" s="2">
         <f>VLOOKUP(A105,Sheet2!A:B,2,0)</f>
@@ -5002,19 +5002,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="G106" s="2">
         <f>VLOOKUP(A106,Sheet2!A:B,2,0)</f>
@@ -5026,19 +5026,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="G107" s="2">
         <f>VLOOKUP(A107,Sheet2!A:B,2,0)</f>
@@ -5050,19 +5050,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="G108" s="2">
         <f>VLOOKUP(A108,Sheet2!A:B,2,0)</f>
@@ -5074,19 +5074,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G109" s="2">
         <f>VLOOKUP(A109,Sheet2!A:B,2,0)</f>
@@ -5098,19 +5098,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="G110" s="2">
         <f>VLOOKUP(A110,Sheet2!A:B,2,0)</f>
@@ -5122,19 +5122,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="G111" s="2">
         <f>VLOOKUP(A111,Sheet2!A:B,2,0)</f>
@@ -5146,19 +5146,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="G112" s="2">
         <f>VLOOKUP(A112,Sheet2!A:B,2,0)</f>
@@ -5170,19 +5170,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="G113" s="2">
         <v>4</v>
@@ -5193,19 +5193,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G114" s="2">
         <f>VLOOKUP(A114,Sheet2!A:B,2,0)</f>
@@ -5217,19 +5217,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G115" s="2">
         <f>VLOOKUP(A115,Sheet2!A:B,2,0)</f>
@@ -5241,19 +5241,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="G116" s="2">
         <f>VLOOKUP(A116,Sheet2!A:B,2,0)</f>
@@ -5265,19 +5265,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G117" s="2">
         <v>1</v>
@@ -5288,19 +5288,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G118" s="2">
         <f>VLOOKUP(A118,Sheet2!A:B,2,0)</f>
@@ -5312,19 +5312,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G119" s="2">
         <f>VLOOKUP(A119,Sheet2!A:B,2,0)</f>
@@ -5336,19 +5336,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="G120" s="2">
         <f>VLOOKUP(A120,Sheet2!A:B,2,0)</f>
@@ -5360,19 +5360,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G121" s="2">
         <f>VLOOKUP(A121,Sheet2!A:B,2,0)</f>
@@ -5384,19 +5384,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G122" s="2">
         <f>VLOOKUP(A122,Sheet2!A:B,2,0)</f>
@@ -5408,19 +5408,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G123" s="2">
         <f>VLOOKUP(A123,Sheet2!A:B,2,0)</f>
@@ -5432,19 +5432,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="G124" s="2">
         <f>VLOOKUP(A124,Sheet2!A:B,2,0)</f>
@@ -5456,19 +5456,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G125" s="2">
         <f>VLOOKUP(A125,Sheet2!A:B,2,0)</f>
@@ -5480,19 +5480,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>560</v>
+        <v>690</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="G126" s="2">
         <f>VLOOKUP(A126,Sheet2!A:B,2,0)</f>
@@ -5504,19 +5504,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G127" s="2">
         <f>VLOOKUP(A127,Sheet2!A:B,2,0)</f>
@@ -5528,19 +5528,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G128" s="2">
         <f>VLOOKUP(A128,Sheet2!A:B,2,0)</f>
@@ -5552,19 +5552,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G129" s="2">
         <f>VLOOKUP(A129,Sheet2!A:B,2,0)</f>
@@ -5576,19 +5576,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G130" s="2">
         <f>VLOOKUP(A130,Sheet2!A:B,2,0)</f>
@@ -5600,19 +5600,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G131" s="2">
         <f>VLOOKUP(A131,Sheet2!A:B,2,0)</f>
@@ -5624,19 +5624,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="G132" s="2">
         <f>VLOOKUP(A132,Sheet2!A:B,2,0)</f>
@@ -5648,19 +5648,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="G133" s="2">
         <f>VLOOKUP(A133,Sheet2!A:B,2,0)</f>
@@ -5672,19 +5672,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G134" s="2">
         <f>VLOOKUP(A134,Sheet2!A:B,2,0)</f>
@@ -5696,19 +5696,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G135" s="2">
         <f>VLOOKUP(A135,Sheet2!A:B,2,0)</f>
@@ -5720,19 +5720,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G136" s="2">
         <f>VLOOKUP(A136,Sheet2!A:B,2,0)</f>
@@ -5744,19 +5744,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G137" s="2">
         <f>VLOOKUP(A137,Sheet2!A:B,2,0)</f>
@@ -5768,19 +5768,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G138" s="2">
         <f>VLOOKUP(A138,Sheet2!A:B,2,0)</f>
@@ -5792,19 +5792,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G139" s="2">
         <f>VLOOKUP(A139,Sheet2!A:B,2,0)</f>
@@ -5816,19 +5816,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G140" s="2">
         <f>VLOOKUP(A140,Sheet2!A:B,2,0)</f>
@@ -5840,7 +5840,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C141" s="3">
         <v>45099</v>
@@ -5864,19 +5864,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>629</v>
+        <v>692</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G142" s="2">
         <f>VLOOKUP(A142,Sheet2!A:B,2,0)</f>
@@ -5888,19 +5888,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G143" s="2">
         <f>VLOOKUP(A143,Sheet2!A:B,2,0)</f>
@@ -5912,43 +5912,43 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G144" s="2">
         <f>VLOOKUP(A144,Sheet2!A:B,2,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="42" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="55.9" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G145" s="2">
         <f>VLOOKUP(A145,Sheet2!A:B,2,0)</f>
@@ -5960,19 +5960,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G146" s="2">
         <f>VLOOKUP(A146,Sheet2!A:B,2,0)</f>
@@ -5984,19 +5984,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G147" s="2">
         <f>VLOOKUP(A147,Sheet2!A:B,2,0)</f>
@@ -6008,19 +6008,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G148" s="2">
         <f>VLOOKUP(A148,Sheet2!A:B,2,0)</f>
@@ -6032,19 +6032,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G149" s="2">
         <f>VLOOKUP(A149,Sheet2!A:B,2,0)</f>
@@ -6056,19 +6056,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="G150" s="2">
         <f>VLOOKUP(A150,Sheet2!A:B,2,0)</f>
@@ -6080,19 +6080,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G151" s="2">
         <f>VLOOKUP(A151,Sheet2!A:B,2,0)</f>
@@ -6109,7 +6109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
